--- a/ch2/resource/score.xlsx
+++ b/ch2/resource/score.xlsx
@@ -122,6 +122,806 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$3:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$3:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$3:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!C2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$3:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$H$2:$H$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$H$2:$H$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -790,5 +1590,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ch2/resource/score.xlsx
+++ b/ch2/resource/score.xlsx
@@ -787,6 +787,230 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor/>
+    <sideWall/>
+    <backWall/>
+    <plotArea>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$H$2:$H$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$H$2:$H$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -916,6 +1140,50 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1290,10 +1558,6 @@
       <c r="G2" t="n">
         <v>12</v>
       </c>
-      <c r="H2">
-        <f>sum(B2:G2)</f>
-        <v/>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>B</t>
@@ -1322,10 +1586,6 @@
       <c r="G3" t="n">
         <v>18</v>
       </c>
-      <c r="H3">
-        <f>sum(B3:G3)</f>
-        <v/>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>C</t>
@@ -1354,10 +1614,6 @@
       <c r="G4" t="n">
         <v>14</v>
       </c>
-      <c r="H4">
-        <f>sum(B4:G4)</f>
-        <v/>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>D</t>
@@ -1386,10 +1642,6 @@
       <c r="G5" t="n">
         <v>18</v>
       </c>
-      <c r="H5">
-        <f>sum(B5:G5)</f>
-        <v/>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>B</t>
@@ -1418,10 +1670,6 @@
       <c r="G6" t="n">
         <v>15</v>
       </c>
-      <c r="H6">
-        <f>sum(B6:G6)</f>
-        <v/>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>B</t>
@@ -1450,10 +1698,6 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7">
-        <f>sum(B7:G7)</f>
-        <v/>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>F</t>
@@ -1482,10 +1726,6 @@
       <c r="G8" t="n">
         <v>18</v>
       </c>
-      <c r="H8">
-        <f>sum(B8:G8)</f>
-        <v/>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>F</t>
@@ -1514,10 +1754,6 @@
       <c r="G9" t="n">
         <v>17</v>
       </c>
-      <c r="H9">
-        <f>sum(B9:G9)</f>
-        <v/>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>C</t>
@@ -1546,10 +1782,6 @@
       <c r="G10" t="n">
         <v>19</v>
       </c>
-      <c r="H10">
-        <f>sum(B10:G10)</f>
-        <v/>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>A</t>
@@ -1577,10 +1809,6 @@
       </c>
       <c r="G11" t="n">
         <v>20</v>
-      </c>
-      <c r="H11">
-        <f>sum(B11:G11)</f>
-        <v/>
       </c>
       <c r="I11" t="inlineStr">
         <is>
